--- a/Tng_Ctr_Hour2.xlsx
+++ b/Tng_Ctr_Hour2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBS\Business Forecasting\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8B34A7-DAE7-4713-B6E4-FFEA5BE09322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161718F3-1850-4E54-A369-21BE100EF5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1230" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="114">
   <si>
     <t>Year</t>
   </si>
@@ -367,17 +367,28 @@
   </si>
   <si>
     <t>NJURN</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>CPIUrban</t>
+  </si>
+  <si>
+    <t>CPIMedian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0%;\-#,##0.0%;#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +401,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -409,10 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -428,16 +444,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{396E56E9-313D-44FD-83F2-1879F8A35498}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -457,6 +484,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -471,22 +501,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M82" headerRowDxfId="1">
-  <autoFilter ref="A1:M82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P82" headerRowDxfId="10">
+  <autoFilter ref="A1:P82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Device_Hrs" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DH_Prev_Year" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DH_YoY_Change" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DH_YoY_Ch_Per" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Device_Hrs" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DH_Prev_Year" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DH_YoY_Change" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DH_YoY_Ch_Per" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{0F8F9826-ABF2-44FB-AAB7-47F21AE8CCDA}" name="Total_Inst_Hrs"/>
     <tableColumn id="12" xr3:uid="{08105120-D65E-4813-88D7-6450F0CB5629}" name="Total_Inst_Hrs_Prev_Year"/>
     <tableColumn id="13" xr3:uid="{97BC2F4E-52DB-457D-A538-66AC1E2E73E1}" name="Inst_Hrs_YoY_Change"/>
-    <tableColumn id="14" xr3:uid="{3F6FC1DE-EE34-49B8-8FAD-D5815175B069}" name="Total_Inst_Hrs_YoY_Change_Per2" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3F6FC1DE-EE34-49B8-8FAD-D5815175B069}" name="Total_Inst_Hrs_YoY_Change_Per2" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{B9952300-843E-427F-BBD9-3D6083B1E3CC}" name="Cons_Sent"/>
-    <tableColumn id="9" xr3:uid="{7856FC05-6C3A-436D-A2DC-AF10A8E90863}" name="NJURN" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{7856FC05-6C3A-436D-A2DC-AF10A8E90863}" name="NJURN" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{78045E6D-7E63-433D-8B4B-786842D281F1}" name="RPM" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{06887292-C7B3-4134-8C01-A85A114A4261}" name="CPIUrban" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8887F11A-9AAE-4832-B917-3044CB42CB76}" name="CPIMedian" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -789,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M82"/>
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,9 +840,10 @@
     <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,8 +883,17 @@
       <c r="M1" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -890,8 +933,17 @@
       <c r="M2" s="8">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="9">
+        <v>65975447</v>
+      </c>
+      <c r="O2" s="11">
+        <v>234.74700000000001</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1.9475295988382599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -931,8 +983,17 @@
       <c r="M3" s="8">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="9">
+        <v>59784666</v>
+      </c>
+      <c r="O3" s="11">
+        <v>235.34200000000001</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1.95449451571832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -972,8 +1033,17 @@
       <c r="M4" s="8">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="9">
+        <v>75751609</v>
+      </c>
+      <c r="O4" s="11">
+        <v>235.976</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2.4333359263674299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1013,8 +1083,17 @@
       <c r="M5" s="8">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="9">
+        <v>73090871</v>
+      </c>
+      <c r="O5" s="11">
+        <v>236.22200000000001</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2.96265053867684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1054,8 +1133,17 @@
       <c r="M6" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="9">
+        <v>78002935</v>
+      </c>
+      <c r="O6" s="11">
+        <v>237.001</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2.5012910991094999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1095,8 +1183,17 @@
       <c r="M7" s="8">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="9">
+        <v>82695216</v>
+      </c>
+      <c r="O7" s="11">
+        <v>237.65700000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>2.9723995643109196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1136,8 +1233,17 @@
       <c r="M8" s="8">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="9">
+        <v>88263768</v>
+      </c>
+      <c r="O8" s="11">
+        <v>238.03399999999999</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1.9220253006031698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1177,8 +1283,17 @@
       <c r="M9" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="9">
+        <v>85234949</v>
+      </c>
+      <c r="O9" s="11">
+        <v>238.03299999999999</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1.6357906321156499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1218,8 +1333,17 @@
       <c r="M10" s="8">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>72483190</v>
+      </c>
+      <c r="O10" s="11">
+        <v>237.49799999999999</v>
+      </c>
+      <c r="P10" s="12">
+        <v>2.9984156927587198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1259,8 +1383,17 @@
       <c r="M11" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="9">
+        <v>76094668</v>
+      </c>
+      <c r="O11" s="11">
+        <v>237.733</v>
+      </c>
+      <c r="P11" s="12">
+        <v>2.28316449144805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1300,8 +1433,17 @@
       <c r="M12" s="8">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>70030247</v>
+      </c>
+      <c r="O12" s="11">
+        <v>238.017</v>
+      </c>
+      <c r="P12" s="12">
+        <v>2.2654806001265002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1341,8 +1483,17 @@
       <c r="M13" s="8">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="9">
+        <v>74827186</v>
+      </c>
+      <c r="O13" s="11">
+        <v>237.761</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1.83471969623819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1382,8 +1533,17 @@
       <c r="M14" s="8">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="9">
+        <v>69265865</v>
+      </c>
+      <c r="O14" s="11">
+        <v>237.65199999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>2.7084165913200402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1423,8 +1583,17 @@
       <c r="M15" s="8">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="9">
+        <v>64559135</v>
+      </c>
+      <c r="O15" s="11">
+        <v>237.33600000000001</v>
+      </c>
+      <c r="P15" s="12">
+        <v>2.5377144012724799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1464,8 +1633,17 @@
       <c r="M16" s="8">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>78684812</v>
+      </c>
+      <c r="O16" s="11">
+        <v>238.08</v>
+      </c>
+      <c r="P16" s="12">
+        <v>2.2220045586459198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1505,8 +1683,17 @@
       <c r="M17" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="9">
+        <v>75127770</v>
+      </c>
+      <c r="O17" s="11">
+        <v>238.99199999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>3.8254778833095098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1546,8 +1733,17 @@
       <c r="M18" s="8">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="9">
+        <v>80784690</v>
+      </c>
+      <c r="O18" s="11">
+        <v>239.55699999999999</v>
+      </c>
+      <c r="P18" s="12">
+        <v>3.2805191880404001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1587,8 +1783,17 @@
       <c r="M19" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="9">
+        <v>86518457</v>
+      </c>
+      <c r="O19" s="11">
+        <v>240.22200000000001</v>
+      </c>
+      <c r="P19" s="12">
+        <v>2.1033904605521201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1628,8 +1833,17 @@
       <c r="M20" s="8">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="9">
+        <v>90628483</v>
+      </c>
+      <c r="O20" s="11">
+        <v>240.101</v>
+      </c>
+      <c r="P20" s="12">
+        <v>2.4901647109793599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1669,8 +1883,17 @@
       <c r="M21" s="8">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="9">
+        <v>86136355</v>
+      </c>
+      <c r="O21" s="11">
+        <v>240.54499999999999</v>
+      </c>
+      <c r="P21" s="12">
+        <v>2.7425708907920803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -1710,8 +1933,17 @@
       <c r="M22" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="9">
+        <v>75323792</v>
+      </c>
+      <c r="O22" s="11">
+        <v>241.17599999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>2.4983293349312201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1751,8 +1983,17 @@
       <c r="M23" s="8">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="9">
+        <v>77274227</v>
+      </c>
+      <c r="O23" s="11">
+        <v>241.74100000000001</v>
+      </c>
+      <c r="P23" s="12">
+        <v>2.0180255617507501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1792,8 +2033,17 @@
       <c r="M24" s="8">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="9">
+        <v>72215277</v>
+      </c>
+      <c r="O24" s="11">
+        <v>242.02600000000001</v>
+      </c>
+      <c r="P24" s="12">
+        <v>2.45883151623452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1833,8 +2083,17 @@
       <c r="M25" s="8">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="9">
+        <v>76957615</v>
+      </c>
+      <c r="O25" s="11">
+        <v>242.637</v>
+      </c>
+      <c r="P25" s="12">
+        <v>2.0383851077488102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1874,8 +2133,17 @@
       <c r="M26" s="8">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="9">
+        <v>71433297</v>
+      </c>
+      <c r="O26" s="11">
+        <v>243.62</v>
+      </c>
+      <c r="P26" s="12">
+        <v>3.3492297549269998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1915,8 +2183,17 @@
       <c r="M27" s="8">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="9">
+        <v>64261254</v>
+      </c>
+      <c r="O27" s="11">
+        <v>243.87200000000001</v>
+      </c>
+      <c r="P27" s="12">
+        <v>2.6177801175291098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1956,8 +2233,17 @@
       <c r="M28" s="8">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="9">
+        <v>80838984</v>
+      </c>
+      <c r="O28" s="11">
+        <v>243.76599999999999</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1.4650202103257299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1997,8 +2283,17 @@
       <c r="M29" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="9">
+        <v>79494360</v>
+      </c>
+      <c r="O29" s="11">
+        <v>244.274</v>
+      </c>
+      <c r="P29" s="12">
+        <v>2.0820924107802798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2038,8 +2333,17 @@
       <c r="M30" s="8">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="9">
+        <v>83542041</v>
+      </c>
+      <c r="O30" s="11">
+        <v>244.06899999999999</v>
+      </c>
+      <c r="P30" s="12">
+        <v>2.15511322711943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -2079,8 +2383,17 @@
       <c r="M31" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="9">
+        <v>89667877</v>
+      </c>
+      <c r="O31" s="11">
+        <v>244.21799999999999</v>
+      </c>
+      <c r="P31" s="12">
+        <v>1.82360038642597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
@@ -2120,8 +2433,17 @@
       <c r="M32" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="9">
+        <v>94106754</v>
+      </c>
+      <c r="O32" s="11">
+        <v>244.28</v>
+      </c>
+      <c r="P32" s="12">
+        <v>2.1967408880455799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2483,17 @@
       <c r="M33" s="8">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="9">
+        <v>90444528</v>
+      </c>
+      <c r="O33" s="11">
+        <v>245.20500000000001</v>
+      </c>
+      <c r="P33" s="12">
+        <v>2.7462102103492403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -2202,8 +2533,17 @@
       <c r="M34" s="8">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="9">
+        <v>74645832</v>
+      </c>
+      <c r="O34" s="11">
+        <v>246.55099999999999</v>
+      </c>
+      <c r="P34" s="12">
+        <v>2.8264339292270102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2243,8 +2583,17 @@
       <c r="M35" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="9">
+        <v>80629312</v>
+      </c>
+      <c r="O35" s="11">
+        <v>246.65700000000001</v>
+      </c>
+      <c r="P35" s="12">
+        <v>2.3877066248393799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -2284,8 +2633,17 @@
       <c r="M36" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="9">
+        <v>75655182</v>
+      </c>
+      <c r="O36" s="11">
+        <v>247.37799999999999</v>
+      </c>
+      <c r="P36" s="12">
+        <v>2.2123387286590699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -2325,8 +2683,17 @@
       <c r="M37" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="9">
+        <v>79629124</v>
+      </c>
+      <c r="O37" s="11">
+        <v>247.73599999999999</v>
+      </c>
+      <c r="P37" s="12">
+        <v>2.9557471890823401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
@@ -2366,8 +2733,17 @@
       <c r="M38" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="9">
+        <v>73352756</v>
+      </c>
+      <c r="O38" s="11">
+        <v>248.721</v>
+      </c>
+      <c r="P38" s="12">
+        <v>3.6292773082390499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -2407,8 +2783,17 @@
       <c r="M39" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="9">
+        <v>68213441</v>
+      </c>
+      <c r="O39" s="11">
+        <v>249.3</v>
+      </c>
+      <c r="P39" s="12">
+        <v>2.0689952637463302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>66</v>
       </c>
@@ -2448,8 +2833,17 @@
       <c r="M40" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="9">
+        <v>85599897</v>
+      </c>
+      <c r="O40" s="11">
+        <v>249.517</v>
+      </c>
+      <c r="P40" s="12">
+        <v>2.2785928169448502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -2489,8 +2883,17 @@
       <c r="M41" s="8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="9">
+        <v>82536712</v>
+      </c>
+      <c r="O41" s="11">
+        <v>250.27500000000001</v>
+      </c>
+      <c r="P41" s="12">
+        <v>2.9320091480948798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -2530,8 +2933,17 @@
       <c r="M42" s="8">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="9">
+        <v>88019738</v>
+      </c>
+      <c r="O42" s="11">
+        <v>250.786</v>
+      </c>
+      <c r="P42" s="12">
+        <v>3.1113162366432001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>69</v>
       </c>
@@ -2571,8 +2983,17 @@
       <c r="M43" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="9">
+        <v>94375329</v>
+      </c>
+      <c r="O43" s="11">
+        <v>251.15199999999999</v>
+      </c>
+      <c r="P43" s="12">
+        <v>3.0118932747980098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
@@ -2612,8 +3033,17 @@
       <c r="M44" s="8">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="9">
+        <v>98883723</v>
+      </c>
+      <c r="O44" s="11">
+        <v>251.345</v>
+      </c>
+      <c r="P44" s="12">
+        <v>2.2764980985288998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -2653,8 +3083,17 @@
       <c r="M45" s="8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="9">
+        <v>94835592</v>
+      </c>
+      <c r="O45" s="11">
+        <v>251.73500000000001</v>
+      </c>
+      <c r="P45" s="12">
+        <v>2.2967112867851003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -2694,8 +3133,17 @@
       <c r="M46" s="8">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="9">
+        <v>79102243</v>
+      </c>
+      <c r="O46" s="11">
+        <v>252.18299999999999</v>
+      </c>
+      <c r="P46" s="12">
+        <v>2.6782871109933599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -2735,8 +3183,17 @@
       <c r="M47" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="9">
+        <v>84374600</v>
+      </c>
+      <c r="O47" s="11">
+        <v>252.899</v>
+      </c>
+      <c r="P47" s="12">
+        <v>2.3248662691312201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -2776,8 +3233,17 @@
       <c r="M48" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N48" s="9">
+        <v>79461417</v>
+      </c>
+      <c r="O48" s="11">
+        <v>252.822</v>
+      </c>
+      <c r="P48" s="12">
+        <v>3.4834371089899303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>75</v>
       </c>
@@ -2817,8 +3283,17 @@
       <c r="M49" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N49" s="9">
+        <v>82764474</v>
+      </c>
+      <c r="O49" s="11">
+        <v>252.49299999999999</v>
+      </c>
+      <c r="P49" s="12">
+        <v>2.9268950949343102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>76</v>
       </c>
@@ -2858,8 +3333,17 @@
       <c r="M50" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N50" s="9">
+        <v>76935981</v>
+      </c>
+      <c r="O50" s="11">
+        <v>252.441</v>
+      </c>
+      <c r="P50" s="12">
+        <v>2.9421528542961095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
@@ -2899,8 +3383,17 @@
       <c r="M51" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N51" s="9">
+        <v>70762598</v>
+      </c>
+      <c r="O51" s="11">
+        <v>252.96899999999999</v>
+      </c>
+      <c r="P51" s="12">
+        <v>2.8563444069763704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
@@ -2940,8 +3433,17 @@
       <c r="M52" s="8">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="9">
+        <v>90028517</v>
+      </c>
+      <c r="O52" s="11">
+        <v>254.14699999999999</v>
+      </c>
+      <c r="P52" s="12">
+        <v>2.9894582606671398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>79</v>
       </c>
@@ -2981,8 +3483,17 @@
       <c r="M53" s="8">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N53" s="9">
+        <v>86209795</v>
+      </c>
+      <c r="O53" s="11">
+        <v>255.32599999999999</v>
+      </c>
+      <c r="P53" s="12">
+        <v>3.16758847503622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>80</v>
       </c>
@@ -3022,8 +3533,17 @@
       <c r="M54" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N54" s="9">
+        <v>92550535</v>
+      </c>
+      <c r="O54" s="11">
+        <v>255.37100000000001</v>
+      </c>
+      <c r="P54" s="12">
+        <v>2.5585351456762795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
@@ -3063,8 +3583,17 @@
       <c r="M55" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N55" s="9">
+        <v>97811522</v>
+      </c>
+      <c r="O55" s="11">
+        <v>255.423</v>
+      </c>
+      <c r="P55" s="12">
+        <v>3.9747277591205799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>82</v>
       </c>
@@ -3104,8 +3633,17 @@
       <c r="M56" s="8">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N56" s="9">
+        <v>101794185</v>
+      </c>
+      <c r="O56" s="11">
+        <v>255.92500000000001</v>
+      </c>
+      <c r="P56" s="12">
+        <v>2.6178534125453901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
@@ -3145,8 +3683,17 @@
       <c r="M57" s="8">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N57" s="9">
+        <v>98025331</v>
+      </c>
+      <c r="O57" s="11">
+        <v>256.11799999999999</v>
+      </c>
+      <c r="P57" s="12">
+        <v>2.6257566309874503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>84</v>
       </c>
@@ -3186,8 +3733,17 @@
       <c r="M58" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N58" s="9">
+        <v>83345979</v>
+      </c>
+      <c r="O58" s="11">
+        <v>256.53199999999998</v>
+      </c>
+      <c r="P58" s="12">
+        <v>3.1506552025938999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -3227,8 +3783,17 @@
       <c r="M59" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N59" s="9">
+        <v>87646386</v>
+      </c>
+      <c r="O59" s="11">
+        <v>257.387</v>
+      </c>
+      <c r="P59" s="12">
+        <v>2.7022754833782501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>86</v>
       </c>
@@ -3268,8 +3833,17 @@
       <c r="M60" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N60" s="9">
+        <v>80521747</v>
+      </c>
+      <c r="O60" s="11">
+        <v>257.98899999999998</v>
+      </c>
+      <c r="P60" s="12">
+        <v>2.9606860593198103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3883,17 @@
       <c r="M61" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N61" s="9">
+        <v>89959899</v>
+      </c>
+      <c r="O61" s="11">
+        <v>258.20299999999997</v>
+      </c>
+      <c r="P61" s="12">
+        <v>1.9992223924753201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>88</v>
       </c>
@@ -3350,9 +3933,17 @@
       <c r="M62" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N62" s="9">
+        <v>81046955</v>
+      </c>
+      <c r="O62" s="11">
+        <v>258.68700000000001</v>
+      </c>
+      <c r="P62" s="12">
+        <v>2.5922152103412301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>89</v>
       </c>
@@ -3392,8 +3983,17 @@
       <c r="M63" s="8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N63" s="9">
+        <v>73892509</v>
+      </c>
+      <c r="O63" s="11">
+        <v>258.82400000000001</v>
+      </c>
+      <c r="P63" s="12">
+        <v>2.7887863480517501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>90</v>
       </c>
@@ -3433,8 +4033,17 @@
       <c r="M64" s="8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N64" s="9">
+        <v>42770967</v>
+      </c>
+      <c r="O64" s="11">
+        <v>257.98899999999998</v>
+      </c>
+      <c r="P64" s="12">
+        <v>2.57672999610479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>91</v>
       </c>
@@ -3474,9 +4083,17 @@
       <c r="M65" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N65" s="9">
+        <v>2908236</v>
+      </c>
+      <c r="O65" s="11">
+        <v>256.19200000000001</v>
+      </c>
+      <c r="P65" s="12">
+        <v>1.7631315336158002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>92</v>
       </c>
@@ -3516,8 +4133,17 @@
       <c r="M66" s="8">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N66" s="9">
+        <v>7137356</v>
+      </c>
+      <c r="O66" s="11">
+        <v>255.94200000000001</v>
+      </c>
+      <c r="P66" s="12">
+        <v>3.0919936157907797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>93</v>
       </c>
@@ -3557,8 +4183,17 @@
       <c r="M67" s="8">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N67" s="9">
+        <v>14806854</v>
+      </c>
+      <c r="O67" s="11">
+        <v>257.28199999999998</v>
+      </c>
+      <c r="P67" s="12">
+        <v>1.7091233330722702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>94</v>
       </c>
@@ -3598,8 +4233,17 @@
       <c r="M68" s="8">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N68" s="9">
+        <v>22062675</v>
+      </c>
+      <c r="O68" s="11">
+        <v>258.60399999999998</v>
+      </c>
+      <c r="P68" s="12">
+        <v>2.8424263942497001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>95</v>
       </c>
@@ -3639,8 +4283,17 @@
       <c r="M69" s="8">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N69" s="9">
+        <v>23569064</v>
+      </c>
+      <c r="O69" s="11">
+        <v>259.51100000000002</v>
+      </c>
+      <c r="P69" s="12">
+        <v>2.43336278982706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -3680,8 +4333,17 @@
       <c r="M70" s="8">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N70" s="9">
+        <v>23073723</v>
+      </c>
+      <c r="O70" s="11">
+        <v>260.149</v>
+      </c>
+      <c r="P70" s="12">
+        <v>1.16580287023458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>97</v>
       </c>
@@ -3721,8 +4383,17 @@
       <c r="M71" s="8">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N71" s="9">
+        <v>27870756</v>
+      </c>
+      <c r="O71" s="11">
+        <v>260.46199999999999</v>
+      </c>
+      <c r="P71" s="12">
+        <v>2.7957566510223599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>98</v>
       </c>
@@ -3762,8 +4433,17 @@
       <c r="M72" s="8">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N72" s="9">
+        <v>27957384</v>
+      </c>
+      <c r="O72" s="11">
+        <v>260.92700000000002</v>
+      </c>
+      <c r="P72" s="12">
+        <v>0.975507965876798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
@@ -3803,8 +4483,17 @@
       <c r="M73" s="8">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N73" s="9">
+        <v>30832402</v>
+      </c>
+      <c r="O73" s="11">
+        <v>261.56</v>
+      </c>
+      <c r="P73" s="12">
+        <v>1.7310060494554902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>100</v>
       </c>
@@ -3844,8 +4533,17 @@
       <c r="M74" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N74" s="9">
+        <v>27800390</v>
+      </c>
+      <c r="O74" s="11">
+        <v>262.23099999999999</v>
+      </c>
+      <c r="P74" s="12">
+        <v>0.976160135861592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>101</v>
       </c>
@@ -3885,8 +4583,17 @@
       <c r="M75" s="8">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N75" s="9">
+        <v>26323164</v>
+      </c>
+      <c r="O75" s="11">
+        <v>263.161</v>
+      </c>
+      <c r="P75" s="12">
+        <v>2.8363413155619597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>102</v>
       </c>
@@ -3926,8 +4633,17 @@
       <c r="M76" s="8">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N76" s="9">
+        <v>42683735</v>
+      </c>
+      <c r="O76" s="11">
+        <v>264.79300000000001</v>
+      </c>
+      <c r="P76" s="12">
+        <v>1.8331691382661701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>103</v>
       </c>
@@ -3967,8 +4683,17 @@
       <c r="M77" s="8">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N77" s="9">
+        <v>47644846</v>
+      </c>
+      <c r="O77" s="11">
+        <v>266.83199999999999</v>
+      </c>
+      <c r="P77" s="12">
+        <v>2.8953413776061203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>104</v>
       </c>
@@ -4008,8 +4733,17 @@
       <c r="M78" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N78" s="9">
+        <v>57822304</v>
+      </c>
+      <c r="O78" s="11">
+        <v>268.55099999999999</v>
+      </c>
+      <c r="P78" s="12">
+        <v>3.2082219124866898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>105</v>
       </c>
@@ -4049,8 +4783,17 @@
       <c r="M79" s="8">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N79" s="9">
+        <v>68541316</v>
+      </c>
+      <c r="O79" s="11">
+        <v>270.98099999999999</v>
+      </c>
+      <c r="P79" s="12">
+        <v>2.9056238065600497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>106</v>
       </c>
@@ -4090,8 +4833,17 @@
       <c r="M80" s="8">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="9">
+        <v>78168642</v>
+      </c>
+      <c r="O80" s="11">
+        <v>272.26499999999999</v>
+      </c>
+      <c r="P80" s="12">
+        <v>3.6798007657424403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>107</v>
       </c>
@@ -4131,8 +4883,17 @@
       <c r="M81" s="8">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="9">
+        <v>71714174</v>
+      </c>
+      <c r="O81" s="11">
+        <v>273.012</v>
+      </c>
+      <c r="P81" s="12">
+        <v>4.0950753782575093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>108</v>
       </c>
@@ -4175,6 +4936,16 @@
       <c r="M82" s="8">
         <v>6.2</v>
       </c>
+      <c r="O82" s="11">
+        <v>274.13799999999998</v>
+      </c>
+      <c r="P82" s="12">
+        <v>5.5690463858877504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O83" s="10"/>
+      <c r="P83" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
